--- a/experiments/optics-ajk/simcse/0.2/prediction.xlsx
+++ b/experiments/optics-ajk/simcse/0.2/prediction.xlsx
@@ -458,51 +458,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>A passenger aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A passenger aircraft is nearby. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -518,37 +518,37 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,27 +578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,27 +608,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,17 +698,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -748,37 +748,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,17 +798,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,27 +818,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,67 +848,67 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,37 +918,37 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,77 +958,77 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,27 +1038,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1078,17 +1078,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1118,17 +1118,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,17 +1148,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,17 +1178,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,97 +1238,97 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,17 +1338,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1358,17 +1358,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1378,27 +1378,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1408,47 +1408,47 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1468,37 +1468,37 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1508,37 +1508,37 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1558,17 +1558,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1578,17 +1578,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1598,17 +1598,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1628,37 +1628,37 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1668,17 +1668,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -1698,17 +1698,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -1718,27 +1718,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1748,17 +1748,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1838,37 +1838,37 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -1878,17 +1878,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -1908,27 +1908,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -1938,17 +1938,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -1968,17 +1968,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -1988,27 +1988,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2088,27 +2088,27 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2208,27 +2208,27 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2248,27 +2248,27 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2278,77 +2278,77 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-1</v>
+        <v>74</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2368,107 +2368,107 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -2478,167 +2478,167 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-1</v>
+        <v>77</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -2658,37 +2658,37 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -2698,27 +2698,27 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2728,17 +2728,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -2748,27 +2748,27 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -2778,37 +2778,37 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -2828,67 +2828,67 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-1</v>
+        <v>85</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -2918,37 +2918,37 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-1</v>
+        <v>86</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -2988,67 +2988,67 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3058,27 +3058,27 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-1</v>
+        <v>93</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3088,57 +3088,57 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3148,47 +3148,47 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Yaw Error.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -3208,3047 +3208,3047 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>43</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>44</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>44</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>22</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>46</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>37</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>49</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>50</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>38</v>
+        <v>94</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>34</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>55</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>59</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>56</v>
+        <v>101</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>64</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>36</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>27</v>
+        <v>89</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>30</v>
+        <v>106</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>30</v>
+        <v>106</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>68</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>70</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>71</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>71</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>72</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>73</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>74</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>40</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>78</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>79</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>81</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>81</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>82</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>83</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>84</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>86</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>87</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>87</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>90</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>90</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>91</v>
+        <v>14</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>93</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>92</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>28</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>94</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>41</v>
+        <v>104</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>14</v>
+        <v>111</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>97</v>
+        <v>6</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>88</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>33</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>33</v>
+        <v>111</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>100</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>104</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>105</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>105</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>89</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>106</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>108</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>108</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>108</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>107</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>107</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>80</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>109</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>54</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>110</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>111</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>112</v>
+        <v>36</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Weak image transmission signal. Adjust antennas</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antenna and avoid signal block.</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>112</v>
+        <v>74</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>112</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>102</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>114</v>
+        <v>8</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Weak image transmission signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Weak signal. Adjust antenna and avoid signal block.</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Weak signal. Adjust antennas</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight.</t>
+          <t>Yaw Error.</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>113</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Weak signal. Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight. Downlink Lost.</t>
+          <t>Your aircraft has entered a Warning Zone (Class D). Please fly with caution.</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>113</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Weak signal. Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>113</v>
+        <v>17</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone. Please fly away or land with caution</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -6258,11 +6258,11 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="584">
